--- a/docs/01.착수/Milestone.xlsx
+++ b/docs/01.착수/Milestone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisu\Desktop\hhplus\concertReservation\docs\01.착수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF1700-5B78-4D4F-9732-944F62C0E035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFB4CA1-B5B2-48B3-A0DF-CFB0603001F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FAD275C6-8705-4140-A11C-9E4472851EAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,26 +82,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>환경 세팅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 및 고도화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2레벨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -134,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PR 문서 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3주차</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -154,10 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4-5주차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5주차</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -194,10 +166,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>인프라 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>개발공수(MD)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,6 +175,86 @@
   </si>
   <si>
     <t>토, 일, 월, 화, 수, 목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swagger API Specification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도메인 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usecase 코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom Exception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로깅 및 예외 처리 시스템 구축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로깅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경별 로깅 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 예외 핸들러 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 관리 체계 구축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 시스템 완성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 흐름 제어 및 검증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fillter 및 Interceptor 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질 보증 및 개선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 테스트 설계 및 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 설계 및 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리팩토링</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +267,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +370,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -558,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,16 +702,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,32 +747,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1028,104 +1108,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846217F9-586A-402E-B44B-9EEF5F5F89B1}">
-  <dimension ref="A2:Z25"/>
+  <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="3.375" bestFit="1" customWidth="1"/>
     <col min="19" max="26" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="32"/>
+      <c r="B3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="32"/>
+      <c r="B4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="C6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="40">
         <v>45627</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41">
         <v>45658</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1191,11 +1272,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="3">
         <v>28</v>
       </c>
@@ -1261,14 +1342,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="26">
@@ -1297,10 +1378,10 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="26">
@@ -1329,15 +1410,15 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
-        <v>18</v>
+      <c r="A11" s="35"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="41">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37">
         <v>1</v>
       </c>
       <c r="F11" s="8"/>
@@ -1361,13 +1442,13 @@
       <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="38"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="16"/>
@@ -1390,13 +1471,13 @@
       <c r="Z12" s="21"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="39"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="16"/>
@@ -1419,15 +1500,15 @@
       <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="36" t="s">
-        <v>23</v>
+      <c r="A14" s="35"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="41">
+        <v>26</v>
+      </c>
+      <c r="E14" s="37">
         <v>1</v>
       </c>
       <c r="F14" s="8"/>
@@ -1452,13 +1533,13 @@
       <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="38"/>
       <c r="F15" s="8"/>
       <c r="G15" s="16"/>
       <c r="I15" s="5"/>
@@ -1481,13 +1562,13 @@
       <c r="Z15" s="21"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="43"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="39"/>
       <c r="F16" s="6"/>
       <c r="G16" s="16"/>
       <c r="H16" s="6"/>
@@ -1511,18 +1592,20 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="36" t="s">
-        <v>32</v>
+      <c r="A17" s="35"/>
+      <c r="B17" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="28">
         <v>1</v>
       </c>
       <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="17"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1543,8 +1626,8 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="24" t="s">
         <v>10</v>
       </c>
@@ -1553,6 +1636,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="17"/>
@@ -1574,13 +1658,13 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="24"/>
+      <c r="A19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="24"/>
       <c r="E19" s="28">
         <v>1</v>
@@ -1589,12 +1673,18 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="M19" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="O19" s="49">
+        <v>0.4</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -1608,26 +1698,34 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="24"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="M20" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="N20" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="22"/>
@@ -1640,30 +1738,36 @@
       <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="24"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="22"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="M21" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="N21" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="O21" s="49">
+        <v>0.3</v>
+      </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="17"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -1672,151 +1776,437 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="24"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="22"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="P22" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="Q22" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="49">
+        <v>0.4</v>
+      </c>
       <c r="S22" s="22"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="24"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="24"/>
       <c r="E23" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="22"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="P23" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="49">
+        <v>0.2</v>
+      </c>
       <c r="S23" s="22"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="34"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="24" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="22"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="P24" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="R24" s="49">
+        <v>0.4</v>
+      </c>
       <c r="S24" s="22"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="28">
-        <v>1.5</v>
+      <c r="A25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="22"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="17"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="6"/>
+      <c r="T25" s="49">
+        <v>0.5</v>
+      </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="17"/>
+      <c r="Y25" s="6"/>
       <c r="Z25" s="22"/>
     </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="22"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="22"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="22"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="28">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="22"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="22"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="22"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="22"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A23:A24"/>
+  <mergeCells count="29">
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:Z6"/>
     <mergeCell ref="A6:A8"/>
@@ -1827,7 +2217,17 @@
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
